--- a/public/template-excel/lapkeuanganhaji/neraca.xlsx
+++ b/public/template-excel/lapkeuanganhaji/neraca.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sibpkh\public\template-excel\lapkeuanganhaji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\DESAIN WEB\BPKH\Maret\Worksheet Database\2019\LAPORAN KEUANGAN HAJI\Neraca\Desember\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90AC4F3-DADA-4591-B31F-4C10A23C735D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1293F757-C554-4C46-8868-5F9D1B0FF412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{88D644C7-6DD9-465B-B9A7-C0807472038D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,67 +32,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>Pendapatan setoran jemaah berangkat</t>
-  </si>
-  <si>
-    <t>Beban transfer BPIH ke Kementerian Agama</t>
-  </si>
-  <si>
-    <t>Surplus/(Defisit) Biaya Penyelenggaraan Ibadah Haji (BPIH)</t>
-  </si>
-  <si>
-    <t>Pendapatan nilai manfaat</t>
-  </si>
-  <si>
-    <t>- Nilai Manfaat Penempatan - bersih</t>
-  </si>
-  <si>
-    <t>- Nilai Manfaat Investasi - bersih</t>
-  </si>
-  <si>
-    <t>Beban operasional BPKH</t>
-  </si>
-  <si>
-    <t>Surplus/(Defisit) Operasional BPKH</t>
-  </si>
-  <si>
-    <t>Penyaluran untuk rekening virtual</t>
-  </si>
-  <si>
-    <t>Penyaluran program kemaslahatan</t>
-  </si>
-  <si>
-    <t>Surplus/(Defisit) BPKH</t>
-  </si>
-  <si>
-    <t>Penggunaan nilai manfaat akumulasi tahun sebelumnya</t>
-  </si>
-  <si>
-    <t>Total Surplus/(Defisit)</t>
-  </si>
-  <si>
-    <t>Penghasilan/(Beban) komprehensif lain</t>
-  </si>
-  <si>
-    <t>Total Surplus Komprehensif</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Uraian</t>
   </si>
   <si>
+    <t>ASET</t>
+  </si>
+  <si>
+    <t>Aset Lancar</t>
+  </si>
+  <si>
+    <t>Kas dan setara kas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piutang </t>
+  </si>
+  <si>
+    <t>Pendapatan yang masih harus diterima</t>
+  </si>
+  <si>
+    <t>Penempatan pada bank</t>
+  </si>
+  <si>
+    <t>Investasi jangka pendek</t>
+  </si>
+  <si>
+    <t>Jumlah Aset Lancar</t>
+  </si>
+  <si>
+    <t>Aset Tidak Lancar</t>
+  </si>
+  <si>
+    <t>Investasi jangka panjang</t>
+  </si>
+  <si>
+    <t>Aset tetap - bersih</t>
+  </si>
+  <si>
+    <t>Aset tak berwujud - bersih</t>
+  </si>
+  <si>
+    <t>Aset lain-lain</t>
+  </si>
+  <si>
+    <t>Jumlah Aset Tidak Lancar</t>
+  </si>
+  <si>
+    <t>TOTAL ASET</t>
+  </si>
+  <si>
+    <t>LIABILITAS</t>
+  </si>
+  <si>
+    <t>Liabilitas Jangka Pendek</t>
+  </si>
+  <si>
+    <t>Utang beban</t>
+  </si>
+  <si>
+    <t>Utang setoran lunas dan tunda</t>
+  </si>
+  <si>
+    <t>Utang pajak</t>
+  </si>
+  <si>
+    <t>Utang lain-Lain</t>
+  </si>
+  <si>
+    <t>Jumlah Liabilitas Jangka Pendek</t>
+  </si>
+  <si>
+    <t>Liabilitas Jangka Panjang</t>
+  </si>
+  <si>
+    <t>Dana titipan jemaah</t>
+  </si>
+  <si>
+    <t>Pendapatan nilai manfaat yang ditangguhkan</t>
+  </si>
+  <si>
+    <t>Jumlah Liabilitas Jangka Panjang</t>
+  </si>
+  <si>
+    <t>JUMLAH LIABILITAS</t>
+  </si>
+  <si>
+    <t>ASET NETO</t>
+  </si>
+  <si>
+    <t>Tidak terikat</t>
+  </si>
+  <si>
+    <t>Terikat temporer</t>
+  </si>
+  <si>
+    <t>Terikat permanen</t>
+  </si>
+  <si>
+    <t>JUMLAH ASET NETO</t>
+  </si>
+  <si>
+    <t>JUMLAH LIABILITAS DAN ASET NETO</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Agustus</t>
+    <t>Uang muka BPIH</t>
+  </si>
+  <si>
+    <t>Desember</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,7 +163,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,6 +185,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -121,7 +220,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,13 +229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -156,15 +249,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -175,48 +270,82 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -235,49 +364,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Comma [0] 2 2 2" xfId="3" xr:uid="{5BC46A91-20D5-494F-89A4-15ABA020F3B8}"/>
+    <cellStyle name="Excel Built-in Comma [0]" xfId="5" xr:uid="{88F90976-C044-40FF-92A3-679951B4DEBC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4E407523-798C-4F62-96F7-2B63F8EB3D53}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{B7BFC5B0-4274-486A-A5FB-D205E666E7B2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,44 +453,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -390,9 +540,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -448,298 +598,486 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47541A75-6981-4BB0-AD93-885F0398A1E1}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>8869457697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>298626617774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>352990921417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>54298093367380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8850000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <f>SUM(B4:B9)</f>
+        <v>63808580364268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>61168135572199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>143869640529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>9597288465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>948313899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(B12:B15)</f>
+        <v>61322550815092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B17" s="3">
+        <f>B10+B16</f>
+        <v>125131131179360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15">
-        <f>SUM(B6:B7)</f>
-        <v>405679730425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14">
-        <v>244449515392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14">
-        <v>161230215033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14">
-        <v>-22754664001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15">
-        <f>B5+B8</f>
-        <v>382925066424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9">
-        <v>-120942014000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
-        <f>B9+B11</f>
-        <v>261983052424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11">
-        <f>B12</f>
-        <v>261983052424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13">
-        <v>80975456788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10">
-        <f>SUM(B14:B15)</f>
-        <v>342958509212</v>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>3373884091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>100136310197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12">
+        <v>170763639970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <f>SUM(B20:B23)</f>
+        <v>274273834258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12">
+        <v>119774143093258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="12">
+        <v>238078541630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <f>SUM(B26:B27)</f>
+        <v>120012221634888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B28+B24</f>
+        <v>120286495469146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14">
+        <v>804261270309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12">
+        <v>1951633053150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12">
+        <v>2088741386755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <f>SUM(B31:B33)</f>
+        <v>4844635710214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B29+B34</f>
+        <v>125131131179360</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>